--- a/orendain_vars_from_supplement.xlsx
+++ b/orendain_vars_from_supplement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidanneher/Documents/GitHub/abcd_multiview/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ED2139-2CCC-5C49-9649-B834E9A32E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D096BC-E869-C643-B422-2D022A37253D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B86A4B60-C525-6A46-B776-D8A750F58001}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>ph_p_dhx</t>
   </si>
   <si>
-    <t>devhx_8_prescript_yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">This seems to be the correct question Orendain et. al. 2023 considered. Descriptive field might require recoding. </t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>physical-health/ph_p_mhx</t>
+  </si>
+  <si>
+    <t>devhx_8_other_drugs</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,7 +578,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -607,10 +607,10 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>19</v>
@@ -627,10 +627,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -647,10 +647,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
@@ -667,10 +667,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -681,16 +681,16 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -704,10 +704,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -715,16 +715,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -738,10 +738,10 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -755,10 +755,10 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -772,10 +772,10 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -789,10 +789,10 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -803,13 +803,13 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -817,16 +817,16 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -834,16 +834,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -854,16 +854,16 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -877,10 +877,10 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -894,10 +894,10 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
